--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,16 +190,16 @@
     <t>Riyas ahamed J</t>
   </si>
   <si>
-    <t>Week02</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
-  </si>
-  <si>
-    <t>update_linkedin_with-photo</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo</t>
+    <t>Week03</t>
+  </si>
+  <si>
+    <t>Fibonacci_Sequence, Calculator, Tic_Tac_Toe, Generative AI</t>
+  </si>
+  <si>
+    <t>Generative AI</t>
+  </si>
+  <si>
+    <t>Tic_Tac_Toe</t>
   </si>
   <si>
     <t>Completed</t>
@@ -208,10 +208,10 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>Week: Week02</t>
-  </si>
-  <si>
-    <t>Generated: 2023-10-03 11:47:27 AM</t>
+    <t>Week: Week03</t>
+  </si>
+  <si>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="112.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
@@ -863,7 +863,7 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>63</v>
@@ -963,7 +963,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
@@ -996,17 +996,20 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>62</v>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1037,7 +1040,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:45 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:45 PM</t>
+    <t>Generated: 2023-10-03 02:56:38 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:38 PM</t>
+    <t>Generated: 2023-10-03 09:45:56 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:56 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:20 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:20 PM</t>
+    <t>Generated: 2023-10-08 11:29:28 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:28 AM</t>
+    <t>Generated: 2023-10-08 11:51:58 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:58 AM</t>
+    <t>Generated: 2023-10-10 10:43:20 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:20 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,12 +196,12 @@
     <t>Fibonacci_Sequence, Calculator, Tic_Tac_Toe, Generative AI</t>
   </si>
   <si>
+    <t>Tic_Tac_Toe</t>
+  </si>
+  <si>
     <t>Generative AI</t>
   </si>
   <si>
-    <t>Tic_Tac_Toe</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:26 PM</t>
   </si>
 </sst>
 </file>
@@ -816,20 +816,17 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,7 +960,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
@@ -1040,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>

--- a/Reports/Week03_report.xlsx
+++ b/Reports/Week03_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week03</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:26 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
